--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>时间</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>已处理</t>
+  </si>
+  <si>
+    <t>2、生成对账单的系统，澳洲直邮的有几个商品id因为没有及时导入设置成本价，到账系统刷新不出来</t>
+  </si>
+  <si>
+    <t>吕海琴</t>
+  </si>
+  <si>
+    <t>3、帮我拉一份数据，SKUID  SKU名称  SKU状态  补货类型 采购状态  销售状态。只要这几样就行，拉商城自营的。</t>
+  </si>
+  <si>
+    <t>刘丹</t>
   </si>
 </sst>
 </file>
@@ -58,10 +70,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -81,9 +93,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,26 +145,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -159,21 +179,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,6 +228,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -239,67 +251,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,115 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,17 +445,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,20 +469,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,6 +533,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -538,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,137 +562,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +701,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -761,8 +776,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1010920</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1534795</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>57785</xdr:rowOff>
     </xdr:to>
@@ -819,8 +834,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9210675" y="904875"/>
+          <a:off x="10229850" y="904875"/>
           <a:ext cx="6268085" cy="3515360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5801360</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="1514873644(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="6696075"/>
+          <a:ext cx="5629910" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5810885</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="1514873715(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="9563100"/>
+          <a:ext cx="5639435" cy="4276725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1090,18 +1181,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="63.625" customWidth="1"/>
+    <col min="2" max="2" width="77" customWidth="1"/>
     <col min="3" max="3" width="20.25" customWidth="1"/>
     <col min="4" max="5" width="22.75" customWidth="1"/>
     <col min="6" max="6" width="25.875" customWidth="1"/>
@@ -1149,6 +1240,34 @@
       </c>
       <c r="F2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="2:5">
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" ht="27" spans="2:5">
+      <c r="B51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>时间</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>刘丹</t>
+  </si>
+  <si>
+    <t>京东商品新增商品池，需要从JD拉取明细，并导出给运营</t>
+  </si>
+  <si>
+    <t>朱伟</t>
   </si>
 </sst>
 </file>
@@ -71,9 +77,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -92,8 +98,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,82 +198,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -198,6 +205,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -205,32 +235,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,139 +257,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,25 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,11 +451,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,10 +498,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -500,21 +510,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +537,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -912,6 +918,82 @@
         <a:xfrm>
           <a:off x="1800225" y="9563100"/>
           <a:ext cx="5639435" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5829300</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="835052225235756516"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="14458950"/>
+          <a:ext cx="5657850" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="197990703444258830"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="14449425"/>
+          <a:ext cx="5657850" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1181,12 +1263,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomLeft" activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1242,7 +1324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" ht="27" spans="2:5">
+    <row r="35" ht="27" spans="2:6">
       <c r="B35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1255,8 +1337,11 @@
       <c r="E35" t="s">
         <v>10</v>
       </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="51" ht="27" spans="2:5">
+    <row r="51" ht="27" spans="2:6">
       <c r="B51" s="3" t="s">
         <v>14</v>
       </c>
@@ -1268,6 +1353,29 @@
       </c>
       <c r="E51" t="s">
         <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
+        <v>43103</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>时间</t>
   </si>
@@ -65,10 +65,43 @@
     <t>刘丹</t>
   </si>
   <si>
-    <t>京东商品新增商品池，需要从JD拉取明细，并导出给运营</t>
+    <t>1、京东商品新增商品池，需要从JD拉取明细，并导出给运营</t>
   </si>
   <si>
     <t>朱伟</t>
+  </si>
+  <si>
+    <t>2、612021这个分时段成本帮我审核一下</t>
+  </si>
+  <si>
+    <t>刘贺蓉</t>
+  </si>
+  <si>
+    <t>3、友盟证书过期</t>
+  </si>
+  <si>
+    <t>张雪顺</t>
+  </si>
+  <si>
+    <t>4、新增特卖账号</t>
+  </si>
+  <si>
+    <t>1、626865  这款商品的正常采购价是没有问题的，但后台生成的对账单的退货单中采购价显示为0</t>
+  </si>
+  <si>
+    <t>王奎</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>2、京东生成对账单，订单显示重复</t>
+  </si>
+  <si>
+    <t>3、京东退货单结算价为0</t>
+  </si>
+  <si>
+    <t>4、取消订单接入恢复会员等级包邮次数</t>
   </si>
 </sst>
 </file>
@@ -81,7 +114,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +132,36 @@
     </font>
     <font>
       <b/>
+      <sz val="10.5"/>
+      <color rgb="FF495060"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,10 +174,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,10 +197,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,6 +228,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -158,50 +251,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,13 +274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,20 +281,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -257,13 +297,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,169 +393,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,17 +491,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,16 +543,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,15 +580,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -556,10 +596,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,137 +608,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +750,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1002,6 +1045,277 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="企业微信截图_15149797954023"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="25041225"/>
+          <a:ext cx="5687060" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5544185</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="企业微信截图_15149816297469"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="27622500"/>
+          <a:ext cx="5353685" cy="3610610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5868035</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="企业微信截图_15149510072629"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="31718250"/>
+          <a:ext cx="5506085" cy="2429510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>363220</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="企业微信截图_15149793256818"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="1123950"/>
+          <a:ext cx="7497445" cy="5325110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>343535</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="企业微信截图_15149795045444"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="7191375"/>
+          <a:ext cx="6268085" cy="2972435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>553720</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="企业微信截图_15149795288788"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="10896600"/>
+          <a:ext cx="7621270" cy="3963035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="企业微信截图_15149797259318"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="15478125"/>
+          <a:ext cx="10058400" cy="5805170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1263,12 +1577,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D184" sqref="D184"/>
+      <selection pane="bottomLeft" activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1378,6 +1692,54 @@
         <v>11</v>
       </c>
     </row>
+    <row r="141" spans="2:6">
+      <c r="B141" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156" t="s">
+        <v>21</v>
+      </c>
+      <c r="D156" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" t="s">
+        <v>10</v>
+      </c>
+      <c r="F180" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1388,12 +1750,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1430,8 +1792,71 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" ht="27" spans="1:5">
+      <c r="A2" s="2">
+        <v>43103</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="3:3">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="37" customFormat="1" spans="2:5">
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="2:5">
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>时间</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>4、新增特卖账号</t>
+  </si>
+  <si>
+    <t>1、刘贺蓉 刘丹忘记导入商品 627548 成本，手动审核</t>
+  </si>
+  <si>
+    <t>2、4791186此顾客是否符合领取浴盆规则，这边查看到是符合的。购物车中没有浴盆</t>
+  </si>
+  <si>
+    <t>咨询</t>
+  </si>
+  <si>
+    <t>设置 2017-12-31 23:59:59.000 活动结束，调整为 2020-12-31 23:59:59.000</t>
   </si>
   <si>
     <t>1、626865  这款商品的正常采购价是没有问题的，但后台生成的对账单的退货单中采购价显示为0</t>
@@ -109,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -139,14 +151,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,8 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,8 +196,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,91 +293,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -297,187 +309,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,11 +503,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,16 +528,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,6 +559,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -549,42 +578,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,133 +620,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,8 +1141,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5868035</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>194</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
@@ -1150,7 +1162,83 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1990725" y="31718250"/>
-          <a:ext cx="5506085" cy="2429510"/>
+          <a:ext cx="5505450" cy="2429510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>753110</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="企业微信截图_15150524143923"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="34699575"/>
+          <a:ext cx="6372860" cy="3248025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5610860</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="1515053040(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="38423850"/>
+          <a:ext cx="5477510" cy="3134360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1577,12 +1665,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E166" sqref="E166"/>
+      <selection pane="bottomLeft" activeCell="G219" sqref="G219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1738,6 +1826,46 @@
       </c>
       <c r="F180" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B197" t="s">
+        <v>23</v>
+      </c>
+      <c r="C197" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7">
+      <c r="B219" t="s">
+        <v>24</v>
+      </c>
+      <c r="C219" t="s">
+        <v>15</v>
+      </c>
+      <c r="D219" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219" t="s">
+        <v>25</v>
+      </c>
+      <c r="F219" t="s">
+        <v>11</v>
+      </c>
+      <c r="G219" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1797,16 +1925,16 @@
         <v>43103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="3:3">
@@ -1814,41 +1942,41 @@
     </row>
     <row r="37" customFormat="1" spans="2:5">
       <c r="B37" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="2:5">
       <c r="B59" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>时间</t>
   </si>
@@ -98,13 +98,40 @@
     <t>设置 2017-12-31 23:59:59.000 活动结束，调整为 2020-12-31 23:59:59.000</t>
   </si>
   <si>
+    <t>1、安卓vivo x9填写收货地址黑屏，卸载重装无用</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>无法解决</t>
+  </si>
+  <si>
+    <t>需要APP发布版本解决兼容性问题</t>
+  </si>
+  <si>
+    <t>2、代理申请，要添加信息</t>
+  </si>
+  <si>
+    <t>1、成本问题解决方案：第一，统一商品同步成本的时候，根据汇率换算成RMB，然后修复已经同步过的商品的成本为RMB；第二：刘静与刘志明沟通，让刘志明修复有问题订单的成本，保证报表数据的准确</t>
+  </si>
+  <si>
+    <t>刘静</t>
+  </si>
+  <si>
+    <t>李海涛/刘志明</t>
+  </si>
+  <si>
+    <t>2、日本直邮我们要设定198元起售，发了邮件和需求</t>
+  </si>
+  <si>
+    <t>3、APP 轮播图右下角出现白色的框，原是显示“广告”二字的，现在需要取消这个</t>
+  </si>
+  <si>
     <t>1、626865  这款商品的正常采购价是没有问题的，但后台生成的对账单的退货单中采购价显示为0</t>
   </si>
   <si>
     <t>王奎</t>
-  </si>
-  <si>
-    <t>BUG</t>
   </si>
   <si>
     <t>2、京东生成对账单，订单显示重复</t>
@@ -122,9 +149,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -309,6 +336,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -333,6 +366,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -345,6 +384,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,6 +420,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -387,6 +438,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -411,85 +468,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,137 +647,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,6 +792,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1239,6 +1269,196 @@
         <a:xfrm>
           <a:off x="1762125" y="38423850"/>
           <a:ext cx="5477510" cy="3134360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>172720</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="848139958865967215"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="42176700"/>
+          <a:ext cx="7373620" cy="8707120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>544195</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="216857891419629749"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="51473100"/>
+          <a:ext cx="9459595" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5515610</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12" descr="1515487404(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="52844700"/>
+          <a:ext cx="5334635" cy="3753485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5515610</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13" descr="1515487491(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="57130950"/>
+          <a:ext cx="5315585" cy="3372485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4048760</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14" descr="1515487512(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="61036200"/>
+          <a:ext cx="3772535" cy="3972560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1665,12 +1885,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G219"/>
+  <dimension ref="A1:G349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G219" sqref="G219"/>
+      <selection pane="bottomLeft" activeCell="D347" sqref="D347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1866,6 +2086,88 @@
       </c>
       <c r="G219" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="2">
+        <v>43108</v>
+      </c>
+      <c r="B241" t="s">
+        <v>27</v>
+      </c>
+      <c r="C241" t="s">
+        <v>15</v>
+      </c>
+      <c r="D241" t="s">
+        <v>9</v>
+      </c>
+      <c r="E241" t="s">
+        <v>28</v>
+      </c>
+      <c r="F241" t="s">
+        <v>29</v>
+      </c>
+      <c r="G241" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5">
+      <c r="B295" t="s">
+        <v>31</v>
+      </c>
+      <c r="C295" t="s">
+        <v>15</v>
+      </c>
+      <c r="D295" t="s">
+        <v>9</v>
+      </c>
+      <c r="E295" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" ht="40.5" spans="1:5">
+      <c r="A301" s="2">
+        <v>43109</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C301" t="s">
+        <v>33</v>
+      </c>
+      <c r="D301" t="s">
+        <v>34</v>
+      </c>
+      <c r="E301" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5">
+      <c r="B326" t="s">
+        <v>35</v>
+      </c>
+      <c r="C326" t="s">
+        <v>17</v>
+      </c>
+      <c r="D326" t="s">
+        <v>9</v>
+      </c>
+      <c r="E326" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5">
+      <c r="B349" t="s">
+        <v>36</v>
+      </c>
+      <c r="C349" t="s">
+        <v>17</v>
+      </c>
+      <c r="D349" t="s">
+        <v>9</v>
+      </c>
+      <c r="E349" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1925,16 +2227,16 @@
         <v>43103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="3:3">
@@ -1942,41 +2244,41 @@
     </row>
     <row r="37" customFormat="1" spans="2:5">
       <c r="B37" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
         <v>28</v>
-      </c>
-      <c r="E37" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="2:5">
       <c r="B59" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" t="s">
         <v>28</v>
-      </c>
-      <c r="E59" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12780"/>
+    <workbookView windowWidth="28455" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>时间</t>
   </si>
@@ -128,10 +128,22 @@
     <t>3、APP 轮播图右下角出现白色的框，原是显示“广告”二字的，现在需要取消这个</t>
   </si>
   <si>
+    <t>1、4778869  这个会员   待收货没有订单  但是上面有一个 1 的数字提示</t>
+  </si>
+  <si>
+    <t>王奎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、一件代发的商品为什么有运费  11968205 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘丹 </t>
+  </si>
+  <si>
+    <t>3、中外运提供的我们推送的订单信息，里面有毛重、净重、第一单位，那这些数据是那来的？我们要做的就是把第一数量改成和商品净重一样就好了</t>
+  </si>
+  <si>
     <t>1、626865  这款商品的正常采购价是没有问题的，但后台生成的对账单的退货单中采购价显示为0</t>
-  </si>
-  <si>
-    <t>王奎</t>
   </si>
   <si>
     <t>2、京东生成对账单，订单显示重复</t>
@@ -178,7 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,7 +198,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,47 +219,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,11 +234,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,21 +281,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,6 +348,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,19 +426,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,13 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,31 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,42 +504,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -511,12 +529,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +539,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,37 +615,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,30 +634,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -635,145 +647,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,13 +1446,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>349</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4048760</xdr:colOff>
       <xdr:row>372</xdr:row>
-      <xdr:rowOff>143510</xdr:rowOff>
+      <xdr:rowOff>133985</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1457,8 +1469,160 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1905000" y="61036200"/>
+          <a:off x="1905000" y="61026675"/>
           <a:ext cx="3772535" cy="3972560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15" descr="1515546782(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="42252900"/>
+          <a:ext cx="5191760" cy="3858260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5838825</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16" descr="199034267093832092"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="65541525"/>
+          <a:ext cx="5657850" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>437</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4867910</xdr:colOff>
+      <xdr:row>457</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17" descr="1515566957(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="76152375"/>
+          <a:ext cx="4782185" cy="3458210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5144135</xdr:colOff>
+      <xdr:row>482</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18" descr="1515566996(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="80219550"/>
+          <a:ext cx="4877435" cy="3820160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1885,12 +2049,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G349"/>
+  <dimension ref="A1:G460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D347" sqref="D347"/>
+      <selection pane="bottomLeft" activeCell="E460" sqref="E460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2129,7 +2293,7 @@
       <c r="A301" s="2">
         <v>43109</v>
       </c>
-      <c r="B301" s="5" t="s">
+      <c r="B301" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C301" t="s">
@@ -2167,6 +2331,51 @@
         <v>9</v>
       </c>
       <c r="E349" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="2">
+        <v>43110</v>
+      </c>
+      <c r="B375" t="s">
+        <v>37</v>
+      </c>
+      <c r="C375" t="s">
+        <v>9</v>
+      </c>
+      <c r="D375" t="s">
+        <v>38</v>
+      </c>
+      <c r="E375" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="437" spans="2:5">
+      <c r="B437" t="s">
+        <v>39</v>
+      </c>
+      <c r="C437" t="s">
+        <v>40</v>
+      </c>
+      <c r="D437" t="s">
+        <v>9</v>
+      </c>
+      <c r="E437" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="460" ht="27" spans="2:5">
+      <c r="B460" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C460" t="s">
+        <v>13</v>
+      </c>
+      <c r="D460" t="s">
+        <v>38</v>
+      </c>
+      <c r="E460" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2227,7 +2436,7 @@
         <v>43103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -2244,7 +2453,7 @@
     </row>
     <row r="37" customFormat="1" spans="2:5">
       <c r="B37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
@@ -2258,7 +2467,7 @@
     </row>
     <row r="59" customFormat="1" spans="2:5">
       <c r="B59" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
@@ -2272,7 +2481,7 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28455" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
   <si>
     <t>时间</t>
   </si>
@@ -134,9 +134,6 @@
     <t>王奎</t>
   </si>
   <si>
-    <t xml:space="preserve">2、一件代发的商品为什么有运费  11968205 </t>
-  </si>
-  <si>
     <t xml:space="preserve">刘丹 </t>
   </si>
   <si>
@@ -153,19 +150,37 @@
   </si>
   <si>
     <t>4、取消订单接入恢复会员等级包邮次数</t>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除图片服务器上面的图片，APP自动处理不展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2、一件代发的商品为什么有运费  11961517 11963122 11964255 11968205 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈的订单都是PC的订单，PC是单独计算运费的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,151 +204,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,194 +223,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -541,251 +232,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -809,57 +258,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -870,7 +272,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -892,7 +294,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -930,7 +332,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -968,7 +370,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1006,7 +408,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1044,7 +446,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1082,7 +484,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1120,7 +522,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1158,7 +560,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1196,7 +598,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1234,7 +636,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1272,7 +674,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1310,7 +712,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1348,7 +750,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1386,7 +788,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1424,7 +826,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1462,7 +864,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1500,7 +902,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1538,7 +940,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1576,7 +978,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1614,7 +1016,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1623,6 +1025,44 @@
         <a:xfrm>
           <a:off x="1895475" y="80219550"/>
           <a:ext cx="4877435" cy="3820160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>780547</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>37905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="76200000"/>
+          <a:ext cx="4028572" cy="1561905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1635,7 +1075,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1657,7 +1097,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1695,7 +1135,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1733,7 +1173,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1771,7 +1211,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2043,21 +1483,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G460"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E460" sqref="E460"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G437" sqref="G437"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
@@ -2067,7 +1506,7 @@
     <col min="7" max="7" width="85.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2090,7 +1529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>43102</v>
       </c>
@@ -2110,7 +1549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" ht="27" spans="2:6">
+    <row r="35" spans="2:6" ht="27">
       <c r="B35" s="3" t="s">
         <v>12</v>
       </c>
@@ -2127,7 +1566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" ht="27" spans="2:6">
+    <row r="51" spans="2:6" ht="27">
       <c r="B51" s="3" t="s">
         <v>14</v>
       </c>
@@ -2275,7 +1714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" spans="2:5">
+    <row r="295" spans="1:5">
       <c r="B295" t="s">
         <v>31</v>
       </c>
@@ -2289,7 +1728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" ht="40.5" spans="1:5">
+    <row r="301" spans="1:5" ht="40.5">
       <c r="A301" s="2">
         <v>43109</v>
       </c>
@@ -2320,7 +1759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="2:5">
+    <row r="349" spans="2:7">
       <c r="B349" t="s">
         <v>36</v>
       </c>
@@ -2332,6 +1771,12 @@
       </c>
       <c r="E349" t="s">
         <v>10</v>
+      </c>
+      <c r="F349" t="s">
+        <v>45</v>
+      </c>
+      <c r="G349" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -2351,23 +1796,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="437" spans="2:5">
+    <row r="437" spans="2:7">
       <c r="B437" t="s">
+        <v>47</v>
+      </c>
+      <c r="C437" t="s">
         <v>39</v>
-      </c>
-      <c r="C437" t="s">
-        <v>40</v>
       </c>
       <c r="D437" t="s">
         <v>9</v>
       </c>
       <c r="E437" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="460" ht="27" spans="2:5">
+        <v>48</v>
+      </c>
+      <c r="F437" t="s">
+        <v>49</v>
+      </c>
+      <c r="G437" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="460" spans="2:5" ht="27">
       <c r="B460" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C460" t="s">
         <v>13</v>
@@ -2380,24 +1831,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="63.375" customWidth="1"/>
@@ -2408,7 +1857,7 @@
     <col min="7" max="7" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2431,12 +1880,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:5">
+    <row r="2" spans="1:7" ht="27">
       <c r="A2" s="2">
         <v>43103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -2448,12 +1897,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="3:3">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="C3" s="4"/>
     </row>
-    <row r="37" customFormat="1" spans="2:5">
+    <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
@@ -2465,9 +1914,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" customFormat="1" spans="2:5">
+    <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
@@ -2481,7 +1930,7 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
@@ -2494,8 +1943,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="28455" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>时间</t>
   </si>
@@ -83,6 +83,9 @@
     <t>张雪顺</t>
   </si>
   <si>
+    <t>已解决</t>
+  </si>
+  <si>
     <t>4、新增特卖账号</t>
   </si>
   <si>
@@ -119,27 +122,67 @@
     <t>刘静</t>
   </si>
   <si>
-    <t>李海涛/刘志明</t>
+    <t>李海涛/王奎</t>
   </si>
   <si>
     <t>2、日本直邮我们要设定198元起售，发了邮件和需求</t>
   </si>
   <si>
+    <t>新需求</t>
+  </si>
+  <si>
+    <t>不做了</t>
+  </si>
+  <si>
     <t>3、APP 轮播图右下角出现白色的框，原是显示“广告”二字的，现在需要取消这个</t>
   </si>
   <si>
+    <t>删除图片服务器上面的图片，APP自动处理不展示</t>
+  </si>
+  <si>
     <t>1、4778869  这个会员   待收货没有订单  但是上面有一个 1 的数字提示</t>
   </si>
   <si>
     <t>王奎</t>
   </si>
   <si>
+    <t xml:space="preserve">2、一件代发的商品为什么有运费  11961517 11963122 11964255 11968205 </t>
+  </si>
+  <si>
     <t xml:space="preserve">刘丹 </t>
   </si>
   <si>
+    <t>资讯</t>
+  </si>
+  <si>
+    <t>不需要处理</t>
+  </si>
+  <si>
+    <t>反馈的订单都是PC的订单，PC是单独计算运费的</t>
+  </si>
+  <si>
     <t>3、中外运提供的我们推送的订单信息，里面有毛重、净重、第一单位，那这些数据是那来的？我们要做的就是把第一数量改成和商品净重一样就好了</t>
   </si>
   <si>
+    <t>2018年1月13日12:30至19:30去母婴之家公司解决：
+1、友盟证书问题   
+2、海淘商品新增参数问题    
+3、商品成本汇率换算问题   
+4、修复统一商品已经通过的错误成本（修复以前的有个BUG导致成本不能同步）</t>
+  </si>
+  <si>
+    <t>1、会员等级包邮功能，反馈会员 4683336 ，订单 11970439 取消订单未返回包邮次数</t>
+  </si>
+  <si>
+    <t>当前这笔订单为收到取消订单的记录，已通知王奎查询</t>
+  </si>
+  <si>
+    <t>2、 ups 系统操作没用，你看一下什么情况。初始化什么的的都没法用</t>
+  </si>
+  <si>
+    <t>刘丹/吕海琴</t>
+  </si>
+  <si>
     <t>1、626865  这款商品的正常采购价是没有问题的，但后台生成的对账单的退货单中采购价显示为0</t>
   </si>
   <si>
@@ -150,37 +193,19 @@
   </si>
   <si>
     <t>4、取消订单接入恢复会员等级包邮次数</t>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除图片服务器上面的图片，APP自动处理不展示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2、一件代发的商品为什么有运费  11961517 11963122 11964255 11968205 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资讯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不需要处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>反馈的订单都是PC的订单，PC是单独计算运费的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +229,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +386,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -232,13 +581,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,13 +846,63 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -272,7 +913,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -294,7 +935,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -332,7 +973,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -370,7 +1011,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -408,7 +1049,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -446,7 +1087,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -484,7 +1125,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -522,7 +1163,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -560,7 +1201,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -598,7 +1239,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -636,7 +1277,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -674,7 +1315,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -712,7 +1353,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -750,7 +1391,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -788,7 +1429,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -826,7 +1467,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -864,7 +1505,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -902,7 +1543,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -940,7 +1581,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -967,8 +1608,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4867910</xdr:colOff>
-      <xdr:row>457</xdr:row>
-      <xdr:rowOff>172085</xdr:rowOff>
+      <xdr:row>458</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -978,7 +1619,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -986,7 +1627,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1714500" y="76152375"/>
-          <a:ext cx="4782185" cy="3458210"/>
+          <a:ext cx="4782185" cy="3457575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1016,7 +1657,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1054,7 +1695,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1062,7 +1703,83 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7524750" y="76200000"/>
-          <a:ext cx="4028572" cy="1561905"/>
+          <a:ext cx="4028440" cy="1561465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5744210</xdr:colOff>
+      <xdr:row>516</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20" descr="1515979681(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="85782150"/>
+          <a:ext cx="5544185" cy="4048760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5267960</xdr:colOff>
+      <xdr:row>546</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21" descr="1515992156(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="90649425"/>
+          <a:ext cx="5058410" cy="4258310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1075,7 +1792,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1097,7 +1814,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1135,7 +1852,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1173,7 +1890,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1211,7 +1928,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1483,20 +2200,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G460"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G437" sqref="G437"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D514" sqref="C514:D514"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
@@ -1506,7 +2224,7 @@
     <col min="7" max="7" width="85.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +2247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>43102</v>
       </c>
@@ -1549,7 +2267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="27">
+    <row r="35" ht="27" spans="2:6">
       <c r="B35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1566,7 +2284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="27">
+    <row r="51" ht="27" spans="2:6">
       <c r="B51" s="3" t="s">
         <v>14</v>
       </c>
@@ -1620,7 +2338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="2:5">
+    <row r="156" spans="2:6">
       <c r="B156" t="s">
         <v>20</v>
       </c>
@@ -1633,10 +2351,13 @@
       <c r="E156" t="s">
         <v>10</v>
       </c>
+      <c r="F156" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="180" spans="2:6">
       <c r="B180" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C180" t="s">
         <v>8</v>
@@ -1656,7 +2377,7 @@
         <v>43104</v>
       </c>
       <c r="B197" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C197" t="s">
         <v>15</v>
@@ -1673,7 +2394,7 @@
     </row>
     <row r="219" spans="2:7">
       <c r="B219" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C219" t="s">
         <v>15</v>
@@ -1682,13 +2403,13 @@
         <v>9</v>
       </c>
       <c r="E219" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F219" t="s">
         <v>11</v>
       </c>
       <c r="G219" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -1696,7 +2417,7 @@
         <v>43108</v>
       </c>
       <c r="B241" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C241" t="s">
         <v>15</v>
@@ -1705,18 +2426,18 @@
         <v>9</v>
       </c>
       <c r="E241" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F241" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G241" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6">
       <c r="B295" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C295" t="s">
         <v>15</v>
@@ -1727,27 +2448,33 @@
       <c r="E295" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" ht="40.5">
+      <c r="F295" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="301" ht="40.5" spans="1:6">
       <c r="A301" s="2">
         <v>43109</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C301" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D301" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E301" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="326" spans="2:5">
+      <c r="F301" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="326" spans="2:6">
       <c r="B326" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C326" t="s">
         <v>17</v>
@@ -1756,12 +2483,15 @@
         <v>9</v>
       </c>
       <c r="E326" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="F326" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="349" spans="2:7">
       <c r="B349" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C349" t="s">
         <v>17</v>
@@ -1773,10 +2503,10 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G349" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -1784,69 +2514,142 @@
         <v>43110</v>
       </c>
       <c r="B375" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C375" t="s">
         <v>9</v>
       </c>
       <c r="D375" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E375" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="437" spans="2:7">
       <c r="B437" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C437" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D437" t="s">
         <v>9</v>
       </c>
       <c r="E437" t="s">
+        <v>45</v>
+      </c>
+      <c r="F437" t="s">
+        <v>46</v>
+      </c>
+      <c r="G437" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="460" ht="27" spans="2:6">
+      <c r="B460" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F437" t="s">
-        <v>49</v>
-      </c>
-      <c r="G437" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="460" spans="2:5" ht="27">
-      <c r="B460" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C460" t="s">
         <v>13</v>
       </c>
       <c r="D460" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E460" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="F460" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="485" spans="2:4">
+      <c r="B485" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D485" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="486" spans="2:4">
+      <c r="B486" s="5"/>
+      <c r="D486" s="6"/>
+    </row>
+    <row r="487" spans="2:4">
+      <c r="B487" s="5"/>
+      <c r="D487" s="6"/>
+    </row>
+    <row r="488" spans="2:4">
+      <c r="B488" s="5"/>
+      <c r="D488" s="6"/>
+    </row>
+    <row r="489" spans="2:4">
+      <c r="B489" s="5"/>
+      <c r="D489" s="6"/>
+    </row>
+    <row r="492" spans="1:7">
+      <c r="A492" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B492" t="s">
+        <v>50</v>
+      </c>
+      <c r="C492" t="s">
+        <v>17</v>
+      </c>
+      <c r="D492" t="s">
+        <v>9</v>
+      </c>
+      <c r="E492" t="s">
+        <v>29</v>
+      </c>
+      <c r="F492" t="s">
+        <v>22</v>
+      </c>
+      <c r="G492" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="520" spans="2:6">
+      <c r="B520" t="s">
+        <v>52</v>
+      </c>
+      <c r="C520" t="s">
+        <v>53</v>
+      </c>
+      <c r="D520" t="s">
+        <v>9</v>
+      </c>
+      <c r="E520" t="s">
+        <v>26</v>
+      </c>
+      <c r="F520" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <mergeCells count="2">
+    <mergeCell ref="B485:B489"/>
+    <mergeCell ref="D485:D489"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="63.375" customWidth="1"/>
@@ -1857,7 +2660,7 @@
     <col min="7" max="7" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1880,71 +2683,71 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27">
+    <row r="2" ht="27" spans="1:5">
       <c r="A2" s="2">
         <v>43103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="3:3">
       <c r="C3" s="4"/>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
-    <sheet name="王奎" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>时间</t>
   </si>
@@ -183,16 +182,10 @@
     <t>刘丹/吕海琴</t>
   </si>
   <si>
-    <t>1、626865  这款商品的正常采购价是没有问题的，但后台生成的对账单的退货单中采购价显示为0</t>
-  </si>
-  <si>
-    <t>2、京东生成对账单，订单显示重复</t>
-  </si>
-  <si>
-    <t>3、京东退货单结算价为0</t>
-  </si>
-  <si>
-    <t>4、取消订单接入恢复会员等级包邮次数</t>
+    <t>1、11968326  此单由于导单错误，请帮我修改订单总金额。总金额为：416元。谢谢！</t>
+  </si>
+  <si>
+    <t>njq9052</t>
   </si>
 </sst>
 </file>
@@ -200,12 +193,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,11 +215,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FF495060"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -245,59 +238,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,9 +267,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,15 +313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,6 +328,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -366,8 +351,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,109 +374,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,73 +548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,6 +587,24 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -617,26 +621,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,9 +657,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,10 +673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,16 +685,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,119 +703,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,9 +827,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1753,15 +1736,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>521</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>520</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5267960</xdr:colOff>
-      <xdr:row>546</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
+      <xdr:colOff>5239385</xdr:colOff>
+      <xdr:row>545</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1778,51 +1761,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1838325" y="90649425"/>
+          <a:off x="1809750" y="90554175"/>
           <a:ext cx="5058410" cy="4258310"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>363220</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19685</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="企业微信截图_15149793256818"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1476375" y="1123950"/>
-          <a:ext cx="7497445" cy="5325110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1834,109 +1774,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>550</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>343535</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>133985</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1315720</xdr:colOff>
+      <xdr:row>578</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="企业微信截图_15149795045444"/>
+        <xdr:cNvPr id="23" name="图片 22" descr="企业微信截图_15160664187099"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1514475" y="7191375"/>
-          <a:ext cx="6268085" cy="2972435"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>553720</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="企业微信截图_15149795288788"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1543050" y="10896600"/>
-          <a:ext cx="7621270" cy="3963035"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>109220</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4" descr="企业微信截图_15149797259318"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1590675" y="15478125"/>
-          <a:ext cx="10058400" cy="5805170"/>
+          <a:off x="1819275" y="95573850"/>
+          <a:ext cx="6992620" cy="4944110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2206,12 +2070,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G520"/>
+  <dimension ref="A1:G549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D514" sqref="C514:D514"/>
+      <selection pane="bottomLeft" activeCell="D563" sqref="D563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2564,28 +2428,28 @@
       </c>
     </row>
     <row r="485" spans="2:4">
-      <c r="B485" s="5" t="s">
+      <c r="B485" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D485" s="6" t="s">
+      <c r="D485" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="486" spans="2:4">
-      <c r="B486" s="5"/>
-      <c r="D486" s="6"/>
+      <c r="B486" s="4"/>
+      <c r="D486" s="5"/>
     </row>
     <row r="487" spans="2:4">
-      <c r="B487" s="5"/>
-      <c r="D487" s="6"/>
+      <c r="B487" s="4"/>
+      <c r="D487" s="5"/>
     </row>
     <row r="488" spans="2:4">
-      <c r="B488" s="5"/>
-      <c r="D488" s="6"/>
+      <c r="B488" s="4"/>
+      <c r="D488" s="5"/>
     </row>
     <row r="489" spans="2:4">
-      <c r="B489" s="5"/>
-      <c r="D489" s="6"/>
+      <c r="B489" s="4"/>
+      <c r="D489" s="5"/>
     </row>
     <row r="492" spans="1:7">
       <c r="A492" s="2">
@@ -2624,6 +2488,26 @@
         <v>26</v>
       </c>
       <c r="F520" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6">
+      <c r="A549" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B549" t="s">
+        <v>54</v>
+      </c>
+      <c r="C549" t="s">
+        <v>55</v>
+      </c>
+      <c r="D549" t="s">
+        <v>9</v>
+      </c>
+      <c r="E549" t="s">
+        <v>10</v>
+      </c>
+      <c r="F549" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2636,118 +2520,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G86"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="63.375" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="55.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="2">
-        <v>43103</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="3:3">
-      <c r="C3" s="4"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" t="s">
-        <v>57</v>
-      </c>
-      <c r="C86" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>时间</t>
   </si>
@@ -186,6 +186,37 @@
   </si>
   <si>
     <t>njq9052</t>
+  </si>
+  <si>
+    <t>2、代发后台的这个物流公司选择，能添加一个“中国邮政”吗？麻不麻烦？</t>
+  </si>
+  <si>
+    <t>刘贺蓉/刘丹</t>
+  </si>
+  <si>
+    <t>3、关于极限词技术评估，出方案</t>
+  </si>
+  <si>
+    <t>方案和所需时间已经邮寄回复，等待确认是否开发</t>
+  </si>
+  <si>
+    <t>4、我们将与1月22日之前发起纸尿裤囤货节活动
+计划对以下用户群发送消息或电话跟进
+一、近3个月没有购买过纸尿裤，3个月前有购买过纸尿裤，近1年有购买记录。
+二、近3个月有购买过孕妇品类(妈妈专区、孕妇装)的商品或1段奶粉的（但是没有买过纸尿裤的）。
+三、从来没有买过纸尿裤，1年内有购物记录的。
+四、近3个月买过nb/s纸尿裤的。
+五、近3个月有购买过纸尿裤的（nb/s除外）
+字段：用户名，姓名，电话，地址（需省，市，区 3个字段无需详细）</t>
+  </si>
+  <si>
+    <t>大姐通过邮件回复拉取数据，已将拉取结果数据邮件发送给朱伟</t>
+  </si>
+  <si>
+    <t>5、秒杀的商品如何设置成包邮</t>
+  </si>
+  <si>
+    <t>张雪顺/吕海琴</t>
   </si>
 </sst>
 </file>
@@ -193,9 +224,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -224,9 +255,48 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,38 +314,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,22 +355,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,33 +383,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,187 +405,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +596,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,82 +691,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,149 +704,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,6 +864,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1801,6 +1835,196 @@
         <a:xfrm>
           <a:off x="1819275" y="95573850"/>
           <a:ext cx="6992620" cy="4944110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>582</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>67310</xdr:colOff>
+      <xdr:row>604</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23" descr="1516090055(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="101050725"/>
+          <a:ext cx="5829935" cy="3762375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>606</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>420370</xdr:colOff>
+      <xdr:row>638</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24" descr="企业微信截图_15160901821560"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="105270300"/>
+          <a:ext cx="7640320" cy="5372100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>641</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5706110</xdr:colOff>
+      <xdr:row>668</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25" descr="企业微信截图_15160942358322"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="113623725"/>
+          <a:ext cx="5467985" cy="4734560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>641</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1572895</xdr:colOff>
+      <xdr:row>653</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26" descr="企业微信截图_15160942653652"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981950" y="113661825"/>
+          <a:ext cx="8068945" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>671</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5439410</xdr:colOff>
+      <xdr:row>693</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27" descr="1516094545(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="118862475"/>
+          <a:ext cx="5344160" cy="3715385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2070,12 +2294,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G549"/>
+  <dimension ref="A1:G671"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A650" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D563" sqref="D563"/>
+      <selection pane="bottomLeft" activeCell="F671" sqref="F671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2511,6 +2735,80 @@
         <v>22</v>
       </c>
     </row>
+    <row r="581" spans="2:6">
+      <c r="B581" t="s">
+        <v>56</v>
+      </c>
+      <c r="C581" t="s">
+        <v>57</v>
+      </c>
+      <c r="D581" t="s">
+        <v>9</v>
+      </c>
+      <c r="E581" t="s">
+        <v>10</v>
+      </c>
+      <c r="F581" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="606" spans="2:7">
+      <c r="B606" t="s">
+        <v>58</v>
+      </c>
+      <c r="C606" t="s">
+        <v>17</v>
+      </c>
+      <c r="D606" t="s">
+        <v>9</v>
+      </c>
+      <c r="E606" t="s">
+        <v>37</v>
+      </c>
+      <c r="F606" t="s">
+        <v>11</v>
+      </c>
+      <c r="G606" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="640" ht="202.5" spans="2:7">
+      <c r="B640" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C640" t="s">
+        <v>17</v>
+      </c>
+      <c r="D640" t="s">
+        <v>9</v>
+      </c>
+      <c r="E640" t="s">
+        <v>10</v>
+      </c>
+      <c r="F640" t="s">
+        <v>11</v>
+      </c>
+      <c r="G640" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="671" spans="2:6">
+      <c r="B671" t="s">
+        <v>62</v>
+      </c>
+      <c r="C671" t="s">
+        <v>63</v>
+      </c>
+      <c r="D671" t="s">
+        <v>9</v>
+      </c>
+      <c r="E671" t="s">
+        <v>26</v>
+      </c>
+      <c r="F671" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B485:B489"/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>时间</t>
   </si>
@@ -218,6 +218,18 @@
   <si>
     <t>张雪顺/吕海琴</t>
   </si>
+  <si>
+    <t>1、中外运反馈：这跟你们母婴之家在海关那里备案没关系，是支付宝公司在海关那里备案有变更，但是你们用的支付宝这个支付平台，你们之前跟支付宝肯定是有对接过的吧，你们要支付宝去沟通了</t>
+  </si>
+  <si>
+    <t>需要确定是否支付宝国际真的更换了备案号或者是因为推送参数不正确造成的推送不正确，如果支付宝国际更新了备好案，需要将新的备案号给到技术，技术才能更新推送</t>
+  </si>
+  <si>
+    <t>1、这个商品后台设置的成本是62；怎么变成70.55了</t>
+  </si>
+  <si>
+    <t>设置成本没有审核</t>
+  </si>
 </sst>
 </file>
 
@@ -225,9 +237,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -369,6 +381,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -382,13 +401,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -405,6 +417,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -423,12 +447,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -453,31 +501,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,19 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,6 +579,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -531,61 +597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,16 +728,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,116 +749,116 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,9 +876,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1929,8 +1938,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5706110</xdr:colOff>
-      <xdr:row>668</xdr:row>
-      <xdr:rowOff>172085</xdr:rowOff>
+      <xdr:row>669</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1948,7 +1957,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1866900" y="113623725"/>
-          <a:ext cx="5467985" cy="4734560"/>
+          <a:ext cx="5467985" cy="4733925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2025,6 +2034,120 @@
         <a:xfrm>
           <a:off x="1724025" y="118862475"/>
           <a:ext cx="5344160" cy="3715385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>697</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5601335</xdr:colOff>
+      <xdr:row>717</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28" descr="1516236505(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="123501150"/>
+          <a:ext cx="5363210" cy="3572510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>721</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5687060</xdr:colOff>
+      <xdr:row>741</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29" descr="1516238492(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="127635000"/>
+          <a:ext cx="5458460" cy="3553460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>722</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3286125</xdr:colOff>
+      <xdr:row>730</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30" descr="企业微信截图_15162384348494"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7705725" y="127787400"/>
+          <a:ext cx="10058400" cy="1482725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2294,12 +2417,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G671"/>
+  <dimension ref="A1:G720"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A650" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A704" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F671" sqref="F671"/>
+      <selection pane="bottomLeft" activeCell="C720" sqref="C720:G720"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2773,7 +2896,7 @@
       </c>
     </row>
     <row r="640" ht="202.5" spans="2:7">
-      <c r="B640" s="6" t="s">
+      <c r="B640" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C640" t="s">
@@ -2807,6 +2930,49 @@
       </c>
       <c r="F671" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="696" ht="40.5" spans="1:7">
+      <c r="A696" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C696" t="s">
+        <v>13</v>
+      </c>
+      <c r="D696" t="s">
+        <v>35</v>
+      </c>
+      <c r="E696" t="s">
+        <v>10</v>
+      </c>
+      <c r="G696" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7">
+      <c r="A720" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B720" t="s">
+        <v>66</v>
+      </c>
+      <c r="C720" t="s">
+        <v>13</v>
+      </c>
+      <c r="D720" t="s">
+        <v>9</v>
+      </c>
+      <c r="E720" t="s">
+        <v>26</v>
+      </c>
+      <c r="F720" t="s">
+        <v>11</v>
+      </c>
+      <c r="G720" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>时间</t>
   </si>
@@ -230,16 +230,25 @@
   <si>
     <t>设置成本没有审核</t>
   </si>
+  <si>
+    <t>2、支付宝国际支付升级备案号开发任务评估</t>
+  </si>
+  <si>
+    <t>张龙云</t>
+  </si>
+  <si>
+    <t>邮件已发出，等待确认是否开发</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -260,29 +269,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,19 +312,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,24 +380,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,6 +426,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,19 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,72 +571,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,6 +617,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -631,6 +655,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,41 +711,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -716,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,133 +737,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2148,6 +2157,44 @@
         <a:xfrm>
           <a:off x="7705725" y="127787400"/>
           <a:ext cx="10058400" cy="1482725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>744</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>248920</xdr:colOff>
+      <xdr:row>791</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31" descr="企业微信截图_15162776599889"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="131711700"/>
+          <a:ext cx="9202420" cy="7926070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2417,12 +2464,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G720"/>
+  <dimension ref="A1:G744"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A704" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A725" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C720" sqref="C720:G720"/>
+      <selection pane="bottomLeft" activeCell="G744" sqref="G744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2975,6 +3022,26 @@
         <v>67</v>
       </c>
     </row>
+    <row r="744" spans="2:7">
+      <c r="B744" t="s">
+        <v>68</v>
+      </c>
+      <c r="C744" t="s">
+        <v>69</v>
+      </c>
+      <c r="D744" t="s">
+        <v>9</v>
+      </c>
+      <c r="E744" t="s">
+        <v>37</v>
+      </c>
+      <c r="F744" t="s">
+        <v>11</v>
+      </c>
+      <c r="G744" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B485:B489"/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28455" windowHeight="12210"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>时间</t>
   </si>
@@ -239,14 +239,23 @@
   <si>
     <t>邮件已发出，等待确认是否开发</t>
   </si>
+  <si>
+    <t>1、未导入的商品成本，导入并审核通过</t>
+  </si>
+  <si>
+    <t>2、王燕凤 特卖账号新增并开通权限</t>
+  </si>
+  <si>
+    <t>3、11973928此单由于导单错误，请帮我修改订单总金额。 支付总金额为：78元  。商品金额：58 元。 运费20元  谢谢</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -268,15 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,58 +285,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,11 +306,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,19 +367,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,7 +435,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,6 +483,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -456,73 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,25 +555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,19 +573,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,6 +626,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -654,7 +702,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,45 +721,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -725,10 +734,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,137 +746,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +894,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2195,6 +2207,158 @@
         <a:xfrm>
           <a:off x="1819275" y="131711700"/>
           <a:ext cx="9202420" cy="7926070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>794</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5629910</xdr:colOff>
+      <xdr:row>820</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32" descr="1516621608(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="140265150"/>
+          <a:ext cx="5515610" cy="4486910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>794</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>229235</xdr:colOff>
+      <xdr:row>818</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33" descr="1516621620(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658100" y="140265150"/>
+          <a:ext cx="5077460" cy="4134485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>823</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5391785</xdr:colOff>
+      <xdr:row>848</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34" descr="1516621666(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="145265775"/>
+          <a:ext cx="5287010" cy="4239260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>852</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>506095</xdr:colOff>
+      <xdr:row>872</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35" descr="企业微信截图_15166252507404"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="150275925"/>
+          <a:ext cx="7764145" cy="3505835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2464,12 +2628,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G744"/>
+  <dimension ref="A1:G851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A725" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G744" sqref="G744"/>
+      <selection pane="bottomLeft" activeCell="E662" sqref="E662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2995,6 +3159,9 @@
       <c r="E696" t="s">
         <v>10</v>
       </c>
+      <c r="F696" t="s">
+        <v>46</v>
+      </c>
       <c r="G696" s="3" t="s">
         <v>65</v>
       </c>
@@ -3040,6 +3207,60 @@
       </c>
       <c r="G744" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6">
+      <c r="A794" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B794" t="s">
+        <v>71</v>
+      </c>
+      <c r="C794" t="s">
+        <v>13</v>
+      </c>
+      <c r="D794" t="s">
+        <v>9</v>
+      </c>
+      <c r="E794" t="s">
+        <v>10</v>
+      </c>
+      <c r="F794" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="823" spans="2:6">
+      <c r="B823" t="s">
+        <v>72</v>
+      </c>
+      <c r="C823" t="s">
+        <v>8</v>
+      </c>
+      <c r="D823" t="s">
+        <v>9</v>
+      </c>
+      <c r="E823" t="s">
+        <v>10</v>
+      </c>
+      <c r="F823" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="851" ht="27" spans="2:6">
+      <c r="B851" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C851" t="s">
+        <v>55</v>
+      </c>
+      <c r="D851" t="s">
+        <v>9</v>
+      </c>
+      <c r="E851" t="s">
+        <v>10</v>
+      </c>
+      <c r="F851" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>时间</t>
   </si>
@@ -248,6 +248,18 @@
   <si>
     <t>3、11973928此单由于导单错误，请帮我修改订单总金额。 支付总金额为：78元  。商品金额：58 元。 运费20元  谢谢</t>
   </si>
+  <si>
+    <t>1、网安新增关键词屏蔽</t>
+  </si>
+  <si>
+    <t>大姐</t>
+  </si>
+  <si>
+    <t>2、从有赞导入订单到CRM系统，11973910订单顾客购买数量为2，金额是82元/件，导入过程中核算2件的金额，麻烦更改单价为82元，谢谢！</t>
+  </si>
+  <si>
+    <t>谭挺</t>
+  </si>
 </sst>
 </file>
 
@@ -255,9 +267,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -277,7 +289,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,7 +297,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,8 +318,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,33 +372,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,38 +397,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,54 +447,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -513,6 +477,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -531,61 +597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,6 +641,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -640,15 +676,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,6 +695,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -683,41 +730,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -734,10 +746,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,7 +758,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,124 +767,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2359,6 +2371,120 @@
         <a:xfrm>
           <a:off x="1781175" y="150275925"/>
           <a:ext cx="7764145" cy="3505835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>875</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1257935</xdr:colOff>
+      <xdr:row>893</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36" descr="1516708497(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="154343100"/>
+          <a:ext cx="6163310" cy="3076575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>875</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5553710</xdr:colOff>
+      <xdr:row>903</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37" descr="1516708519(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="154314525"/>
+          <a:ext cx="5439410" cy="4791075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>907</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1191895</xdr:colOff>
+      <xdr:row>931</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38" descr="企业微信截图_15167088612488"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="159924750"/>
+          <a:ext cx="8392795" cy="4105275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2628,12 +2754,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G851"/>
+  <dimension ref="A1:G906"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A900" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E662" sqref="E662"/>
+      <selection pane="bottomLeft" activeCell="E917" sqref="E917"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3247,7 +3373,7 @@
       </c>
     </row>
     <row r="851" ht="27" spans="2:6">
-      <c r="B851" s="6" t="s">
+      <c r="B851" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C851" t="s">
@@ -3260,6 +3386,43 @@
         <v>10</v>
       </c>
       <c r="F851" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6">
+      <c r="A875" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B875" t="s">
+        <v>74</v>
+      </c>
+      <c r="C875" t="s">
+        <v>75</v>
+      </c>
+      <c r="D875" t="s">
+        <v>9</v>
+      </c>
+      <c r="E875" t="s">
+        <v>10</v>
+      </c>
+      <c r="F875" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="906" ht="27" spans="2:6">
+      <c r="B906" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C906" t="s">
+        <v>77</v>
+      </c>
+      <c r="D906" t="s">
+        <v>9</v>
+      </c>
+      <c r="E906" t="s">
+        <v>10</v>
+      </c>
+      <c r="F906" t="s">
         <v>11</v>
       </c>
     </row>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>时间</t>
   </si>
@@ -260,6 +260,27 @@
   <si>
     <t>谭挺</t>
   </si>
+  <si>
+    <t>1、我们现在新的澳洲直邮供应商订单物流单号导入不了，承运商是：中翼国际</t>
+  </si>
+  <si>
+    <t>快递100  要已经对了这个物流公司  并且开放了物流公司的编码     然后我们这边配置一下  即可</t>
+  </si>
+  <si>
+    <t>2、微信专享价的订单，部分机型微信无法发起支付</t>
+  </si>
+  <si>
+    <t>刘静/朱伟</t>
+  </si>
+  <si>
+    <t>3、4792954  填写地址的时候直接就黑屏！完了就直接返回到手机的主页去了！而不是返回母婴之家主页，麻烦核实下是什么情况，谢谢</t>
+  </si>
+  <si>
+    <t>雪儿</t>
+  </si>
+  <si>
+    <t>手机兼容性问题 需要APP开发处理 后端无法解决</t>
+  </si>
 </sst>
 </file>
 
@@ -267,9 +288,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -288,16 +309,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,9 +332,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,52 +353,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,14 +373,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,6 +401,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -425,6 +439,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -447,25 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +486,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,85 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +552,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,13 +576,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,7 +642,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,30 +659,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -676,6 +673,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,13 +701,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,6 +742,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -746,10 +767,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,133 +779,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2458,13 +2479,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>907</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1191895</xdr:colOff>
+      <xdr:colOff>1172845</xdr:colOff>
       <xdr:row>931</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -2483,8 +2504,198 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1838325" y="159924750"/>
+          <a:off x="1819275" y="159924750"/>
           <a:ext cx="8392795" cy="4105275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>934</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4077335</xdr:colOff>
+      <xdr:row>959</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39" descr="272701050654696234"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="164639625"/>
+          <a:ext cx="3972560" cy="4172585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4467225</xdr:colOff>
+      <xdr:row>934</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1268095</xdr:colOff>
+      <xdr:row>953</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40" descr="1516858779(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="164620575"/>
+          <a:ext cx="7678420" cy="3153410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>963</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>744220</xdr:colOff>
+      <xdr:row>983</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41" descr="1516858937(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="169449750"/>
+          <a:ext cx="8021320" cy="3458210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>962</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2830195</xdr:colOff>
+      <xdr:row>983</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图片 42" descr="1516858945(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="169373550"/>
+          <a:ext cx="7364095" cy="3553460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>986</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>306070</xdr:colOff>
+      <xdr:row>1006</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43" descr="1516862919(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="173631225"/>
+          <a:ext cx="7535545" cy="3505835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2754,12 +2965,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G906"/>
+  <dimension ref="A1:G985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A900" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A972" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E917" sqref="E917"/>
+      <selection pane="bottomLeft" activeCell="G1003" sqref="G1003"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3410,7 +3621,7 @@
       </c>
     </row>
     <row r="906" ht="27" spans="2:6">
-      <c r="B906" s="6" t="s">
+      <c r="B906" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C906" t="s">
@@ -3424,6 +3635,66 @@
       </c>
       <c r="F906" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7">
+      <c r="A934" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B934" t="s">
+        <v>78</v>
+      </c>
+      <c r="C934" t="s">
+        <v>53</v>
+      </c>
+      <c r="D934" t="s">
+        <v>9</v>
+      </c>
+      <c r="E934" t="s">
+        <v>26</v>
+      </c>
+      <c r="F934" t="s">
+        <v>11</v>
+      </c>
+      <c r="G934" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="962" spans="2:6">
+      <c r="B962" t="s">
+        <v>80</v>
+      </c>
+      <c r="C962" t="s">
+        <v>81</v>
+      </c>
+      <c r="D962" t="s">
+        <v>9</v>
+      </c>
+      <c r="E962" t="s">
+        <v>26</v>
+      </c>
+      <c r="F962" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="985" ht="27" spans="2:7">
+      <c r="B985" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C985" t="s">
+        <v>83</v>
+      </c>
+      <c r="D985" t="s">
+        <v>9</v>
+      </c>
+      <c r="E985" t="s">
+        <v>29</v>
+      </c>
+      <c r="F985" t="s">
+        <v>30</v>
+      </c>
+      <c r="G985" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-01 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>时间</t>
   </si>
@@ -281,6 +281,9 @@
   <si>
     <t>手机兼容性问题 需要APP开发处理 后端无法解决</t>
   </si>
+  <si>
+    <t>1、武汉市亲子树文化传播有限公司   登录帐号：qinzishu   密码：wme988122  这个商家有一段时间没有合作了，现在后台登录一直提示密码错误</t>
+  </si>
 </sst>
 </file>
 
@@ -288,9 +291,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -306,6 +309,20 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,6 +344,34 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,48 +412,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,25 +471,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +520,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,37 +567,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,6 +604,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,30 +640,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,6 +690,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -725,21 +743,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -767,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,19 +782,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,52 +803,52 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -854,58 +857,58 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2696,6 +2699,82 @@
         <a:xfrm>
           <a:off x="1809750" y="173631225"/>
           <a:ext cx="7535545" cy="3505835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1011</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4772660</xdr:colOff>
+      <xdr:row>1034</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44" descr="1517364335(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="178022250"/>
+          <a:ext cx="4572635" cy="4086860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5229225</xdr:colOff>
+      <xdr:row>1011</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1296035</xdr:colOff>
+      <xdr:row>1035</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45" descr="1517364367(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="178022250"/>
+          <a:ext cx="5210810" cy="4182110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2965,12 +3044,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G985"/>
+  <dimension ref="A1:G1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A972" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A999" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G1003" sqref="G1003"/>
+      <selection pane="bottomLeft" activeCell="F1015" sqref="F1015"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3678,7 +3757,7 @@
       </c>
     </row>
     <row r="985" ht="27" spans="2:7">
-      <c r="B985" s="6" t="s">
+      <c r="B985" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C985" t="s">
@@ -3695,6 +3774,26 @@
       </c>
       <c r="G985" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="1010" ht="27" spans="1:6">
+      <c r="A1010" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B1010" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
